--- a/output/meral/2020/sheets/year_2020.xlsx
+++ b/output/meral/2020/sheets/year_2020.xlsx
@@ -481,159 +481,135 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>40.22903225806452</v>
+        <v>53.66952107797745</v>
       </c>
       <c r="C2" t="n">
-        <v>33.47741935483871</v>
+        <v>46.54679822548992</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>46.50344827586208</v>
+        <v>51.97612899042849</v>
       </c>
       <c r="C3" t="n">
-        <v>35.08275862068966</v>
+        <v>44.89947127377086</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
+      <c r="A4" t="n">
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>43.03548387096775</v>
+        <v>49.44844332706702</v>
       </c>
       <c r="C4" t="n">
-        <v>27.41612903225806</v>
+        <v>43.50420830363546</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
+      <c r="A5" t="n">
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>42.97999999999999</v>
+        <v>46.68029535329601</v>
       </c>
       <c r="C5" t="n">
-        <v>21.73999999999999</v>
+        <v>41.30338354769095</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>05</t>
-        </is>
+      <c r="A6" t="n">
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>48.43870967741937</v>
+        <v>49.0030487719872</v>
       </c>
       <c r="C6" t="n">
-        <v>20.25161290322581</v>
+        <v>42.73908494603803</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
+      <c r="A7" t="n">
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>51.30666666666666</v>
+        <v>51.61932593859091</v>
       </c>
       <c r="C7" t="n">
-        <v>30.17</v>
+        <v>43.70769410304716</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
+      <c r="A8" t="n">
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>40.41612903225807</v>
+        <v>45.95764289841419</v>
       </c>
       <c r="C8" t="n">
-        <v>15.79032258064516</v>
+        <v>38.78993513855539</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
+      <c r="A9" t="n">
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>39.2516129032258</v>
+        <v>46.4154290277868</v>
       </c>
       <c r="C9" t="n">
-        <v>17.28709677419354</v>
+        <v>42.22464767961392</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
+      <c r="A10" t="n">
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>29.82333333333333</v>
+        <v>47.07769606521743</v>
       </c>
       <c r="C10" t="n">
-        <v>12.15</v>
+        <v>43.05543217263426</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A11" t="n">
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>37.06774193548387</v>
+        <v>46.03355679657211</v>
       </c>
       <c r="C11" t="n">
-        <v>20.03870967741936</v>
+        <v>43.46827543266392</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="A12" t="n">
+        <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>34.21666666666667</v>
+        <v>47.55167666752008</v>
       </c>
       <c r="C12" t="n">
-        <v>16.60333333333333</v>
+        <v>41.46946083504125</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="A13" t="n">
+        <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>23.20967741935484</v>
+        <v>44.4955983046965</v>
       </c>
       <c r="C13" t="n">
-        <v>16.10322580645161</v>
+        <v>41.473661104676</v>
       </c>
     </row>
   </sheetData>
